--- a/Data testing Excel/Parameter Invoice.xlsx
+++ b/Data testing Excel/Parameter Invoice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Use</t>
   </si>
@@ -28,9 +28,6 @@
     <t>ApplicationNo</t>
   </si>
   <si>
-    <t>539APP20240300351</t>
-  </si>
-  <si>
     <t>Notes Go live</t>
   </si>
   <si>
@@ -43,7 +40,13 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>539APP20240300343</t>
+    <t>539APP20240500399</t>
+  </si>
+  <si>
+    <t>539APP20240500407</t>
+  </si>
+  <si>
+    <t>539APP20240600414</t>
   </si>
 </sst>
 </file>
@@ -386,18 +389,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.54296875" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -408,10 +410,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -419,13 +421,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -433,18 +435,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
